--- a/Symphony/2021/AUGUST/01.08.2021/MC Bank Statement August-2021.xlsx
+++ b/Symphony/2021/AUGUST/01.08.2021/MC Bank Statement August-2021.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="803" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="803" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="March 2021" sheetId="7" state="hidden" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="203">
   <si>
     <t>Date</t>
   </si>
@@ -618,9 +618,6 @@
     <t>Symphony  Balance(-)</t>
   </si>
   <si>
-    <t xml:space="preserve">Lockdown SMS </t>
-  </si>
-  <si>
     <t>Trade License</t>
   </si>
   <si>
@@ -634,9 +631,6 @@
   </si>
   <si>
     <t>B=Kakoly Telecom</t>
-  </si>
-  <si>
-    <t>(-)200000</t>
   </si>
   <si>
     <t>31.07.2021</t>
@@ -655,6 +649,24 @@
   </si>
   <si>
     <t>Salary</t>
+  </si>
+  <si>
+    <t>08.01.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lockdown </t>
+  </si>
+  <si>
+    <t>Ma Mobile</t>
+  </si>
+  <si>
+    <t>Naldanga</t>
+  </si>
+  <si>
+    <t>01.8.2021</t>
+  </si>
+  <si>
+    <t>(-)220000</t>
   </si>
 </sst>
 </file>
@@ -4882,7 +4894,7 @@
   <dimension ref="A1:H85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="G56" sqref="G56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -4975,7 +4987,7 @@
     <row r="7" spans="1:8">
       <c r="A7" s="356"/>
       <c r="B7" s="38" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C7" s="37">
         <v>0</v>
@@ -5977,8 +5989,8 @@
   <dimension ref="A1:X320"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T19" sqref="T19"/>
+      <pane ySplit="5" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q37" sqref="Q37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -6034,7 +6046,7 @@
     </row>
     <row r="3" spans="1:24" s="111" customFormat="1" ht="16.5" thickBot="1">
       <c r="A3" s="363" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B3" s="364"/>
       <c r="C3" s="364"/>
@@ -6076,16 +6088,16 @@
         <v>52</v>
       </c>
       <c r="F4" s="357" t="s">
-        <v>186</v>
+        <v>198</v>
       </c>
       <c r="G4" s="357" t="s">
         <v>53</v>
       </c>
       <c r="H4" s="357" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I4" s="357" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J4" s="357" t="s">
         <v>54</v>
@@ -6145,17 +6157,27 @@
       <c r="X5" s="118"/>
     </row>
     <row r="6" spans="1:24" s="21" customFormat="1">
-      <c r="A6" s="119"/>
-      <c r="B6" s="120"/>
+      <c r="A6" s="119" t="s">
+        <v>193</v>
+      </c>
+      <c r="B6" s="120">
+        <v>1000</v>
+      </c>
       <c r="C6" s="120"/>
       <c r="D6" s="121"/>
       <c r="E6" s="121"/>
       <c r="F6" s="121"/>
-      <c r="G6" s="121"/>
+      <c r="G6" s="121">
+        <v>470</v>
+      </c>
       <c r="H6" s="121"/>
       <c r="I6" s="121"/>
-      <c r="J6" s="122"/>
-      <c r="K6" s="121"/>
+      <c r="J6" s="122">
+        <v>230</v>
+      </c>
+      <c r="K6" s="121">
+        <v>480</v>
+      </c>
       <c r="L6" s="121"/>
       <c r="M6" s="121"/>
       <c r="N6" s="159"/>
@@ -6163,7 +6185,7 @@
       <c r="P6" s="123"/>
       <c r="Q6" s="124">
         <f t="shared" ref="Q6:Q36" si="0">SUM(B6:P6)</f>
-        <v>0</v>
+        <v>2180</v>
       </c>
       <c r="R6" s="125"/>
       <c r="S6" s="126"/>
@@ -6960,7 +6982,7 @@
       </c>
       <c r="B37" s="145">
         <f>SUM(B6:B36)</f>
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="C37" s="146">
         <f t="shared" ref="C37:P37" si="1">SUM(C6:C36)</f>
@@ -6980,7 +7002,7 @@
       </c>
       <c r="G37" s="146">
         <f>SUM(G6:G36)</f>
-        <v>0</v>
+        <v>470</v>
       </c>
       <c r="H37" s="146">
         <f t="shared" si="1"/>
@@ -6992,11 +7014,11 @@
       </c>
       <c r="J37" s="146">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>230</v>
       </c>
       <c r="K37" s="146">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>480</v>
       </c>
       <c r="L37" s="146">
         <f t="shared" si="1"/>
@@ -7020,7 +7042,7 @@
       </c>
       <c r="Q37" s="148">
         <f>SUM(Q6:Q36)</f>
-        <v>0</v>
+        <v>2180</v>
       </c>
       <c r="S37" s="330" t="s">
         <v>68</v>
@@ -9026,6 +9048,7 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="O4:O5"/>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="A2:Q2"/>
     <mergeCell ref="A3:Q3"/>
@@ -9044,7 +9067,6 @@
     <mergeCell ref="L4:L5"/>
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.39370078740157483" bottom="0" header="0" footer="0"/>
@@ -9057,8 +9079,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CS1357"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="H40" sqref="H40"/>
+    <sheetView topLeftCell="A52" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D67" sqref="D67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -9186,7 +9208,7 @@
     </row>
     <row r="2" spans="1:97" ht="15" customHeight="1">
       <c r="A2" s="379" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B2" s="380"/>
       <c r="C2" s="380"/>
@@ -9406,7 +9428,7 @@
         <v>1</v>
       </c>
       <c r="G4" s="194" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H4" s="105"/>
       <c r="I4" s="201"/>
@@ -9500,13 +9522,21 @@
       <c r="CS4" s="196"/>
     </row>
     <row r="5" spans="1:97">
-      <c r="A5" s="242"/>
-      <c r="B5" s="91"/>
-      <c r="C5" s="91"/>
-      <c r="D5" s="91"/>
+      <c r="A5" s="242" t="s">
+        <v>193</v>
+      </c>
+      <c r="B5" s="91">
+        <v>521540</v>
+      </c>
+      <c r="C5" s="91">
+        <v>592496</v>
+      </c>
+      <c r="D5" s="91">
+        <v>2180</v>
+      </c>
       <c r="E5" s="91">
         <f>C5+D5</f>
-        <v>0</v>
+        <v>594676</v>
       </c>
       <c r="F5" s="332"/>
       <c r="G5" s="340"/>
@@ -12361,23 +12391,23 @@
       </c>
       <c r="B33" s="254">
         <f>SUM(B5:B32)</f>
-        <v>0</v>
+        <v>521540</v>
       </c>
       <c r="C33" s="254">
         <f>SUM(C5:C32)</f>
-        <v>0</v>
+        <v>592496</v>
       </c>
       <c r="D33" s="254">
         <f>SUM(D5:D32)</f>
-        <v>0</v>
+        <v>2180</v>
       </c>
       <c r="E33" s="254">
         <f>SUM(E5:E32)</f>
-        <v>0</v>
+        <v>594676</v>
       </c>
       <c r="F33" s="339">
         <f>B33-E33</f>
-        <v>0</v>
+        <v>-73136</v>
       </c>
       <c r="G33" s="344"/>
       <c r="H33" s="197"/>
@@ -13731,7 +13761,7 @@
         <v>1718911905</v>
       </c>
       <c r="D46" s="279">
-        <v>423150</v>
+        <v>376556</v>
       </c>
       <c r="E46" s="246" t="s">
         <v>193</v>
@@ -13748,7 +13778,7 @@
         <v>423150</v>
       </c>
       <c r="K46" s="186" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="L46" s="262">
         <v>423150</v>
@@ -13853,10 +13883,10 @@
         <v>1716697790</v>
       </c>
       <c r="D47" s="280">
-        <v>265917</v>
+        <v>258335</v>
       </c>
       <c r="E47" s="238" t="s">
-        <v>92</v>
+        <v>193</v>
       </c>
       <c r="F47" s="190"/>
       <c r="G47" s="196"/>
@@ -13975,10 +14005,10 @@
         <v>1733624262</v>
       </c>
       <c r="D48" s="280">
-        <v>209465</v>
+        <v>207681</v>
       </c>
       <c r="E48" s="239" t="s">
-        <v>89</v>
+        <v>197</v>
       </c>
       <c r="F48" s="190"/>
       <c r="G48" s="196"/>
@@ -14219,10 +14249,10 @@
         <v>1743942020</v>
       </c>
       <c r="D50" s="280">
-        <v>188280</v>
+        <v>187839</v>
       </c>
       <c r="E50" s="239" t="s">
-        <v>88</v>
+        <v>193</v>
       </c>
       <c r="F50" s="190"/>
       <c r="G50" s="196"/>
@@ -14466,7 +14496,7 @@
         <v>45360</v>
       </c>
       <c r="E52" s="238" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F52" s="190"/>
       <c r="G52" s="196"/>
@@ -14480,7 +14510,7 @@
         <v>45360</v>
       </c>
       <c r="K52" s="231" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L52" s="187">
         <v>45360</v>
@@ -14585,10 +14615,10 @@
         <v>1723246584</v>
       </c>
       <c r="D53" s="280">
-        <v>43360</v>
+        <v>41576</v>
       </c>
       <c r="E53" s="240" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="F53" s="190"/>
       <c r="G53" s="196"/>
@@ -14602,7 +14632,7 @@
         <v>43360</v>
       </c>
       <c r="K53" s="231" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L53" s="187">
         <v>43360</v>
@@ -14707,10 +14737,10 @@
         <v>1725821212</v>
       </c>
       <c r="D54" s="280">
-        <v>15000</v>
+        <v>14554</v>
       </c>
       <c r="E54" s="240" t="s">
-        <v>167</v>
+        <v>193</v>
       </c>
       <c r="F54" s="190"/>
       <c r="G54" s="196"/>
@@ -16173,10 +16203,10 @@
         <v>97</v>
       </c>
       <c r="D67" s="280">
-        <v>80450</v>
+        <v>45945</v>
       </c>
       <c r="E67" s="239" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="F67" s="190"/>
       <c r="G67" s="196"/>
@@ -16190,7 +16220,7 @@
         <v>80450</v>
       </c>
       <c r="K67" s="231" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L67" s="187">
         <v>80450</v>
@@ -17152,7 +17182,7 @@
         <v>9730</v>
       </c>
       <c r="E75" s="240" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F75" s="190"/>
       <c r="G75" s="196"/>
@@ -17166,7 +17196,7 @@
         <v>9730</v>
       </c>
       <c r="K75" s="164" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="L75" s="187">
         <v>9730</v>
@@ -17931,11 +17961,19 @@
       <c r="CS81" s="196"/>
     </row>
     <row r="82" spans="1:97">
-      <c r="A82" s="297"/>
-      <c r="B82" s="98"/>
+      <c r="A82" s="297" t="s">
+        <v>200</v>
+      </c>
+      <c r="B82" s="98" t="s">
+        <v>199</v>
+      </c>
       <c r="C82" s="164"/>
-      <c r="D82" s="280"/>
-      <c r="E82" s="239"/>
+      <c r="D82" s="280">
+        <v>20000</v>
+      </c>
+      <c r="E82" s="239" t="s">
+        <v>201</v>
+      </c>
       <c r="F82" s="192"/>
       <c r="G82" s="196"/>
       <c r="H82" s="255" t="s">
@@ -21882,7 +21920,7 @@
       <c r="C119" s="385"/>
       <c r="D119" s="283">
         <f>SUM(D37:D118)</f>
-        <v>2055014</v>
+        <v>1981878</v>
       </c>
       <c r="E119" s="275"/>
       <c r="F119" s="196"/>
@@ -22089,7 +22127,7 @@
       <c r="C121" s="373"/>
       <c r="D121" s="283">
         <f>D119+M121</f>
-        <v>2055014</v>
+        <v>1981878</v>
       </c>
       <c r="E121" s="275"/>
       <c r="F121" s="196"/>
@@ -32106,8 +32144,8 @@
   </sheetPr>
   <dimension ref="A1:AC223"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -32148,7 +32186,7 @@
     </row>
     <row r="3" spans="1:29" ht="23.25">
       <c r="A3" s="389" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B3" s="390"/>
       <c r="C3" s="390"/>
@@ -32222,14 +32260,15 @@
         <v>12</v>
       </c>
       <c r="E5" s="67">
-        <v>5623503.1366666704</v>
+        <f>4915228.64142857+220000</f>
+        <v>5135228.6414285703</v>
       </c>
       <c r="F5" s="59"/>
       <c r="G5" s="52" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="H5" s="350" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
@@ -32258,7 +32297,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="66">
-        <v>0</v>
+        <v>13162.879999999994</v>
       </c>
       <c r="C6" s="66"/>
       <c r="D6" s="64" t="s">
@@ -32302,7 +32341,7 @@
         <v>85</v>
       </c>
       <c r="E7" s="157">
-        <v>719071.86333332956</v>
+        <v>1287965.2385714296</v>
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="52"/>
@@ -32334,7 +32373,7 @@
         <v>15</v>
       </c>
       <c r="B8" s="66">
-        <v>0</v>
+        <v>2180</v>
       </c>
       <c r="C8" s="65"/>
       <c r="D8" s="178"/>
@@ -32366,7 +32405,7 @@
     </row>
     <row r="9" spans="1:29" ht="21.75">
       <c r="A9" s="63" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B9" s="66">
         <v>0</v>
@@ -32376,7 +32415,7 @@
         <v>13</v>
       </c>
       <c r="E9" s="67">
-        <v>2055014</v>
+        <v>1981878</v>
       </c>
       <c r="F9" s="5"/>
       <c r="H9" s="5"/>
@@ -32408,14 +32447,14 @@
       </c>
       <c r="B10" s="348">
         <f>B6+B7-B8-B9</f>
-        <v>0</v>
+        <v>10982.879999999994</v>
       </c>
       <c r="C10" s="65"/>
       <c r="D10" s="65" t="s">
         <v>87</v>
       </c>
       <c r="E10" s="67">
-        <v>101520</v>
+        <v>105020</v>
       </c>
       <c r="F10" s="5"/>
       <c r="G10" s="52"/>
@@ -32556,7 +32595,7 @@
       </c>
       <c r="B14" s="69">
         <f>B5+B6-B8-B9-B12+B7</f>
-        <v>8000000</v>
+        <v>8010982.8799999999</v>
       </c>
       <c r="C14" s="65"/>
       <c r="D14" s="65" t="s">
@@ -32564,7 +32603,7 @@
       </c>
       <c r="E14" s="68">
         <f>E5+E6+E7+E8+E9+E10+E11+E12+E13</f>
-        <v>8000000</v>
+        <v>8010982.879999999</v>
       </c>
       <c r="F14" s="5"/>
       <c r="G14" s="158">
@@ -32671,7 +32710,7 @@
         <v>64</v>
       </c>
       <c r="B17" s="84">
-        <v>80450</v>
+        <v>45945</v>
       </c>
       <c r="C17" s="64"/>
       <c r="D17" s="72" t="s">
@@ -32821,7 +32860,7 @@
     </row>
     <row r="21" spans="1:29" ht="21.75">
       <c r="A21" s="171" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B21" s="172">
         <v>23000</v>
